--- a/190918/collatzRes777.xlsx
+++ b/190918/collatzRes777.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>矢印の順に</t>
     <rPh sb="0" eb="2">
@@ -129,12 +129,41 @@
     <t>6_27</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>3*奇数+1</t>
+    <rPh sb="2" eb="4">
+      <t>キスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>灰色は、大きさを増やしても位置が変わらない所</t>
+    <rPh sb="0" eb="2">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トコロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +204,41 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -260,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +355,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,13 +827,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:AG20"/>
+  <dimension ref="C3:AY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="3:33" ht="17.25">
+    <row r="3" spans="3:51">
+      <c r="AO3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP3" s="19"/>
+    </row>
+    <row r="4" spans="3:51" ht="17.25">
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -763,135 +858,217 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:33">
-      <c r="C5">
+    <row r="5" spans="3:51">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="13">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="13">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="13">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="13">
         <v>4</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="13">
         <v>1</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="13">
         <v>2</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="13">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>7</v>
-      </c>
-      <c r="U5">
+      <c r="R5" s="13">
+        <v>7</v>
+      </c>
+      <c r="U5" s="13">
         <v>1</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="13">
         <v>2</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="13">
         <v>4</v>
       </c>
-      <c r="X5">
-        <v>7</v>
-      </c>
-      <c r="Y5">
+      <c r="X5" s="13">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="13">
         <v>11</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="13">
         <v>1</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="13">
         <v>2</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="13">
         <v>4</v>
       </c>
-      <c r="AE5">
-        <v>7</v>
-      </c>
-      <c r="AF5">
+      <c r="AE5" s="13">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="13">
         <v>11</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="13">
         <v>16</v>
       </c>
+      <c r="AM5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="19">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="13">
+        <v>7</v>
+      </c>
+      <c r="AQ5" s="13">
+        <v>11</v>
+      </c>
+      <c r="AR5" s="19">
+        <v>16</v>
+      </c>
+      <c r="AS5" s="19">
+        <v>22</v>
+      </c>
+      <c r="AT5" s="16">
+        <v>29</v>
+      </c>
+      <c r="AU5" s="16">
+        <v>37</v>
+      </c>
+      <c r="AV5" s="19">
+        <v>46</v>
+      </c>
+      <c r="AW5" s="16">
+        <v>56</v>
+      </c>
+      <c r="AX5" s="16">
+        <v>67</v>
+      </c>
+      <c r="AY5" s="16">
+        <v>79</v>
+      </c>
     </row>
-    <row r="6" spans="3:33">
-      <c r="C6" s="1">
+    <row r="6" spans="3:51">
+      <c r="C6" s="14">
         <v>3</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="14">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="13">
         <v>5</v>
       </c>
       <c r="L6">
         <v>7</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="14">
         <v>3</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="13">
         <v>5</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="13">
         <v>8</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="14">
         <v>3</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="13">
         <v>5</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="13">
         <v>8</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="14">
         <v>12</v>
       </c>
       <c r="Y6">
         <v>16</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="14">
         <v>3</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="13">
         <v>5</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="13">
         <v>8</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="14">
         <v>12</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="13">
         <v>17</v>
       </c>
       <c r="AG6">
         <v>22</v>
       </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="19">
+        <f>AI6*3+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM6" s="14">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="13">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="13">
+        <v>8</v>
+      </c>
+      <c r="AP6" s="14">
+        <v>12</v>
+      </c>
+      <c r="AQ6" s="13">
+        <v>17</v>
+      </c>
+      <c r="AR6" s="16">
+        <v>23</v>
+      </c>
+      <c r="AS6" s="16">
+        <v>30</v>
+      </c>
+      <c r="AT6">
+        <v>38</v>
+      </c>
+      <c r="AU6">
+        <v>47</v>
+      </c>
+      <c r="AV6">
+        <v>57</v>
+      </c>
+      <c r="AW6">
+        <v>68</v>
+      </c>
+      <c r="AX6">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="3:33">
+    <row r="7" spans="3:51">
       <c r="F7" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="14">
         <v>6</v>
       </c>
       <c r="K7">
@@ -900,10 +1077,10 @@
       <c r="L7" s="1">
         <v>9</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="14">
         <v>6</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="14">
         <v>9</v>
       </c>
       <c r="Q7" s="1">
@@ -912,13 +1089,13 @@
       <c r="R7">
         <v>14</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="14">
         <v>6</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="14">
         <v>9</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="13">
         <v>13</v>
       </c>
       <c r="X7">
@@ -927,16 +1104,16 @@
       <c r="Y7">
         <v>20</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="14">
         <v>6</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="14">
         <v>9</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="13">
         <v>13</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="14">
         <v>18</v>
       </c>
       <c r="AF7">
@@ -945,12 +1122,52 @@
       <c r="AG7" s="1">
         <v>27</v>
       </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="19">
+        <f t="shared" ref="AJ7:AJ20" si="0">AI7*3+1</f>
+        <v>10</v>
+      </c>
+      <c r="AM7" s="14">
+        <v>6</v>
+      </c>
+      <c r="AN7" s="14">
+        <v>9</v>
+      </c>
+      <c r="AO7" s="13">
+        <v>13</v>
+      </c>
+      <c r="AP7" s="14">
+        <v>18</v>
+      </c>
+      <c r="AQ7" s="17">
+        <v>24</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>31</v>
+      </c>
+      <c r="AS7">
+        <v>39</v>
+      </c>
+      <c r="AT7">
+        <v>48</v>
+      </c>
+      <c r="AU7" s="22">
+        <v>58</v>
+      </c>
+      <c r="AV7">
+        <v>69</v>
+      </c>
+      <c r="AW7">
+        <v>81</v>
+      </c>
     </row>
-    <row r="8" spans="3:33">
+    <row r="8" spans="3:51">
       <c r="F8" t="s">
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="13">
         <v>10</v>
       </c>
       <c r="P8">
@@ -962,10 +1179,10 @@
       <c r="R8">
         <v>16</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="13">
         <v>10</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="13">
         <v>14</v>
       </c>
       <c r="W8" s="1">
@@ -977,13 +1194,13 @@
       <c r="Y8">
         <v>23</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="13">
         <v>10</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="13">
         <v>14</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="15">
         <v>19</v>
       </c>
       <c r="AE8" s="1">
@@ -995,9 +1212,46 @@
       <c r="AG8">
         <v>31</v>
       </c>
+      <c r="AI8">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AM8" s="19">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="13">
+        <v>14</v>
+      </c>
+      <c r="AO8" s="15">
+        <v>19</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>25</v>
+      </c>
+      <c r="AQ8" s="17">
+        <v>32</v>
+      </c>
+      <c r="AR8" s="21">
+        <v>40</v>
+      </c>
+      <c r="AS8" s="17">
+        <v>49</v>
+      </c>
+      <c r="AT8" s="17">
+        <v>59</v>
+      </c>
+      <c r="AU8" s="21">
+        <v>70</v>
+      </c>
+      <c r="AV8" s="21">
+        <v>82</v>
+      </c>
     </row>
-    <row r="9" spans="3:33">
-      <c r="U9" s="1">
+    <row r="9" spans="3:51">
+      <c r="U9" s="14">
         <v>15</v>
       </c>
       <c r="V9">
@@ -1012,10 +1266,10 @@
       <c r="Y9">
         <v>25</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="14">
         <v>15</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="13">
         <v>20</v>
       </c>
       <c r="AD9" s="3">
@@ -1030,9 +1284,53 @@
       <c r="AG9">
         <v>34</v>
       </c>
+      <c r="AI9">
+        <v>7</v>
+      </c>
+      <c r="AJ9" s="19">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AM9" s="14">
+        <v>15</v>
+      </c>
+      <c r="AN9" s="13">
+        <v>20</v>
+      </c>
+      <c r="AO9" s="17">
+        <v>26</v>
+      </c>
+      <c r="AP9" s="17">
+        <v>33</v>
+      </c>
+      <c r="AQ9" s="17">
+        <v>41</v>
+      </c>
+      <c r="AR9" s="17">
+        <v>50</v>
+      </c>
+      <c r="AS9" s="17">
+        <v>60</v>
+      </c>
+      <c r="AT9" s="17">
+        <v>71</v>
+      </c>
+      <c r="AU9" s="17">
+        <v>83</v>
+      </c>
     </row>
-    <row r="10" spans="3:33">
-      <c r="AB10" s="1">
+    <row r="10" spans="3:51">
+      <c r="J10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="AB10" s="14">
         <v>21</v>
       </c>
       <c r="AC10">
@@ -1050,23 +1348,151 @@
       <c r="AG10" s="1">
         <v>36</v>
       </c>
+      <c r="AI10">
+        <v>9</v>
+      </c>
+      <c r="AJ10" s="19">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AM10" s="14">
+        <v>21</v>
+      </c>
+      <c r="AN10" s="16">
+        <v>27</v>
+      </c>
+      <c r="AO10" s="21">
+        <v>34</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>42</v>
+      </c>
+      <c r="AQ10" s="17">
+        <v>51</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>61</v>
+      </c>
+      <c r="AS10" s="17">
+        <v>72</v>
+      </c>
+      <c r="AT10" s="17">
+        <v>84</v>
+      </c>
     </row>
-    <row r="11" spans="3:33">
+    <row r="11" spans="3:51">
       <c r="AB11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="1"/>
+      <c r="AI11">
+        <v>11</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AM11" s="20">
+        <v>28</v>
+      </c>
+      <c r="AN11" s="16">
+        <v>35</v>
+      </c>
+      <c r="AO11" s="17">
+        <v>43</v>
+      </c>
+      <c r="AP11" s="22">
+        <v>52</v>
+      </c>
+      <c r="AQ11" s="18">
+        <v>62</v>
+      </c>
+      <c r="AR11" s="18">
+        <v>73</v>
+      </c>
+      <c r="AS11" s="18">
+        <v>85</v>
+      </c>
     </row>
-    <row r="12" spans="3:33">
+    <row r="12" spans="3:51">
       <c r="AB12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="1"/>
+      <c r="AI12">
+        <v>13</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AM12" s="17">
+        <v>36</v>
+      </c>
+      <c r="AN12">
+        <v>44</v>
+      </c>
+      <c r="AO12" s="17">
+        <v>53</v>
+      </c>
+      <c r="AP12" s="17">
+        <v>63</v>
+      </c>
+      <c r="AQ12" s="17">
+        <v>74</v>
+      </c>
+      <c r="AR12" s="17">
+        <v>86</v>
+      </c>
     </row>
-    <row r="14" spans="3:33" ht="14.25" thickBot="1"/>
-    <row r="15" spans="3:33">
+    <row r="13" spans="3:51">
+      <c r="AI13">
+        <v>15</v>
+      </c>
+      <c r="AJ13" s="19">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AM13">
+        <v>45</v>
+      </c>
+      <c r="AN13">
+        <v>54</v>
+      </c>
+      <c r="AO13" s="21">
+        <v>64</v>
+      </c>
+      <c r="AP13" s="17">
+        <v>75</v>
+      </c>
+      <c r="AQ13" s="17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="3:51" ht="14.25" thickBot="1">
+      <c r="AI14">
+        <v>17</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AM14">
+        <v>55</v>
+      </c>
+      <c r="AN14">
+        <v>65</v>
+      </c>
+      <c r="AO14" s="21">
+        <v>76</v>
+      </c>
+      <c r="AP14" s="21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="3:51">
       <c r="C15" s="4">
         <v>1</v>
       </c>
@@ -1087,8 +1513,24 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
+      <c r="AI15">
+        <v>19</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="AM15">
+        <v>66</v>
+      </c>
+      <c r="AN15">
+        <v>77</v>
+      </c>
+      <c r="AO15" s="17">
+        <v>89</v>
+      </c>
     </row>
-    <row r="16" spans="3:33" ht="14.25" thickBot="1">
+    <row r="16" spans="3:51" ht="14.25" thickBot="1">
       <c r="C16" s="6">
         <v>3</v>
       </c>
@@ -1113,8 +1555,21 @@
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
+      <c r="AI16">
+        <v>21</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="AM16">
+        <v>78</v>
+      </c>
+      <c r="AN16">
+        <v>90</v>
+      </c>
     </row>
-    <row r="17" spans="3:16" ht="14.25" thickBot="1">
+    <row r="17" spans="3:39" ht="14.25" thickBot="1">
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -1147,8 +1602,18 @@
       <c r="P17" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="AI17">
+        <v>23</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="AM17">
+        <v>91</v>
+      </c>
     </row>
-    <row r="18" spans="3:16" ht="14.25" thickBot="1">
+    <row r="18" spans="3:39" ht="14.25" thickBot="1">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
@@ -1169,8 +1634,15 @@
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
+      <c r="AI18">
+        <v>25</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
     </row>
-    <row r="19" spans="3:16" ht="14.25" thickBot="1">
+    <row r="19" spans="3:39" ht="14.25" thickBot="1">
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -1191,8 +1663,15 @@
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
+      <c r="AI19">
+        <v>27</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
     </row>
-    <row r="20" spans="3:16" ht="14.25" thickBot="1">
+    <row r="20" spans="3:39" ht="14.25" thickBot="1">
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -1220,6 +1699,13 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="AI20">
+        <v>29</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/190918/collatzRes777.xlsx
+++ b/190918/collatzRes777.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>矢印の順に</t>
     <rPh sb="0" eb="2">
@@ -158,12 +158,126 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きさ7</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きさ8</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きさ9</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>76*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>52*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>58*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>46*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>28*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>34*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">橙は3*奇数+1
+</t>
+    <rPh sb="0" eb="1">
+      <t>ダイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*は、初登場</t>
+    <rPh sb="3" eb="6">
+      <t>ハツトウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤文字は正方形の辺に無いという事</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セイホウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +331,20 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -317,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,6 +513,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,21 +1000,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:AY20"/>
+  <dimension ref="C3:CL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="3:51">
-      <c r="AO3" s="19" t="s">
+    <row r="3" spans="3:87">
+      <c r="BY3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="19"/>
-    </row>
-    <row r="4" spans="3:51" ht="17.25">
+      <c r="BZ3" s="19"/>
+    </row>
+    <row r="4" spans="3:87" ht="17.25">
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -857,8 +1030,17 @@
       <c r="AB4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="3:51">
+      <c r="AJ4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:87">
       <c r="C5" s="13">
         <v>1</v>
       </c>
@@ -871,7 +1053,7 @@
       <c r="K5" s="13">
         <v>2</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="19">
         <v>4</v>
       </c>
       <c r="O5" s="13">
@@ -880,7 +1062,7 @@
       <c r="P5" s="13">
         <v>2</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="19">
         <v>4</v>
       </c>
       <c r="R5" s="13">
@@ -892,7 +1074,7 @@
       <c r="V5" s="13">
         <v>2</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="19">
         <v>4</v>
       </c>
       <c r="X5" s="13">
@@ -907,7 +1089,7 @@
       <c r="AC5" s="13">
         <v>2</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AD5" s="19">
         <v>4</v>
       </c>
       <c r="AE5" s="13">
@@ -916,55 +1098,127 @@
       <c r="AF5" s="13">
         <v>11</v>
       </c>
-      <c r="AG5" s="13">
+      <c r="AG5" s="19">
         <v>16</v>
       </c>
-      <c r="AM5" s="13">
+      <c r="AJ5" s="23">
         <v>1</v>
       </c>
-      <c r="AN5" s="13">
+      <c r="AK5" s="23">
         <v>2</v>
       </c>
-      <c r="AO5" s="19">
+      <c r="AL5" s="24">
         <v>4</v>
       </c>
-      <c r="AP5" s="13">
+      <c r="AM5" s="23">
         <v>7</v>
       </c>
-      <c r="AQ5" s="13">
+      <c r="AN5" s="23">
         <v>11</v>
       </c>
-      <c r="AR5" s="19">
+      <c r="AO5" s="24">
         <v>16</v>
       </c>
-      <c r="AS5" s="19">
+      <c r="AP5" s="24">
         <v>22</v>
       </c>
-      <c r="AT5" s="16">
+      <c r="AS5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="24">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="23">
+        <v>7</v>
+      </c>
+      <c r="AW5" s="23">
+        <v>11</v>
+      </c>
+      <c r="AX5" s="24">
+        <v>16</v>
+      </c>
+      <c r="AY5" s="24">
+        <v>22</v>
+      </c>
+      <c r="AZ5" s="31">
         <v>29</v>
       </c>
-      <c r="AU5" s="16">
+      <c r="BC5" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="23">
+        <v>2</v>
+      </c>
+      <c r="BE5" s="24">
+        <v>4</v>
+      </c>
+      <c r="BF5" s="23">
+        <v>7</v>
+      </c>
+      <c r="BG5" s="23">
+        <v>11</v>
+      </c>
+      <c r="BH5" s="24">
+        <v>16</v>
+      </c>
+      <c r="BI5" s="24">
+        <v>22</v>
+      </c>
+      <c r="BJ5" s="31">
+        <v>29</v>
+      </c>
+      <c r="BK5" s="31">
         <v>37</v>
       </c>
-      <c r="AV5" s="19">
+      <c r="BW5" s="13">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="13">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="19">
+        <v>4</v>
+      </c>
+      <c r="BZ5" s="13">
+        <v>7</v>
+      </c>
+      <c r="CA5" s="13">
+        <v>11</v>
+      </c>
+      <c r="CB5" s="19">
+        <v>16</v>
+      </c>
+      <c r="CC5" s="19">
+        <v>22</v>
+      </c>
+      <c r="CD5" s="16">
+        <v>29</v>
+      </c>
+      <c r="CE5" s="16">
+        <v>37</v>
+      </c>
+      <c r="CF5" s="19">
         <v>46</v>
       </c>
-      <c r="AW5" s="16">
+      <c r="CG5" s="16">
         <v>56</v>
       </c>
-      <c r="AX5" s="16">
+      <c r="CH5" s="16">
         <v>67</v>
       </c>
-      <c r="AY5" s="16">
+      <c r="CI5" s="16">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="3:51">
+    <row r="6" spans="3:87">
       <c r="C6" s="14">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>4</v>
+      <c r="D6" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="J6" s="14">
         <v>3</v>
@@ -999,7 +1253,7 @@
       <c r="X6" s="14">
         <v>12</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="19">
         <v>16</v>
       </c>
       <c r="AB6" s="14">
@@ -1017,54 +1271,126 @@
       <c r="AF6" s="13">
         <v>17</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="19">
         <v>22</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6" s="28">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="23">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="23">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="28">
+        <v>12</v>
+      </c>
+      <c r="AN6" s="23">
+        <v>17</v>
+      </c>
+      <c r="AO6" s="23">
+        <v>23</v>
+      </c>
+      <c r="AP6" s="30">
+        <v>29</v>
+      </c>
+      <c r="AS6" s="28">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="23">
+        <v>5</v>
+      </c>
+      <c r="AU6" s="23">
+        <v>8</v>
+      </c>
+      <c r="AV6" s="28">
+        <v>12</v>
+      </c>
+      <c r="AW6" s="23">
+        <v>17</v>
+      </c>
+      <c r="AX6" s="23">
+        <v>23</v>
+      </c>
+      <c r="AY6" s="31">
+        <v>30</v>
+      </c>
+      <c r="AZ6" s="29">
+        <v>37</v>
+      </c>
+      <c r="BC6" s="28">
+        <v>3</v>
+      </c>
+      <c r="BD6" s="23">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="23">
+        <v>8</v>
+      </c>
+      <c r="BF6" s="28">
+        <v>12</v>
+      </c>
+      <c r="BG6" s="23">
+        <v>17</v>
+      </c>
+      <c r="BH6" s="23">
+        <v>23</v>
+      </c>
+      <c r="BI6" s="31">
+        <v>30</v>
+      </c>
+      <c r="BJ6" s="23">
+        <v>38</v>
+      </c>
+      <c r="BK6" s="36">
+        <v>46</v>
+      </c>
+      <c r="BS6">
         <v>1</v>
       </c>
-      <c r="AJ6" s="19">
-        <f>AI6*3+1</f>
+      <c r="BT6" s="19">
+        <f>BS6*3+1</f>
         <v>4</v>
       </c>
-      <c r="AM6" s="14">
+      <c r="BW6" s="14">
         <v>3</v>
       </c>
-      <c r="AN6" s="13">
+      <c r="BX6" s="13">
         <v>5</v>
       </c>
-      <c r="AO6" s="13">
+      <c r="BY6" s="13">
         <v>8</v>
       </c>
-      <c r="AP6" s="14">
+      <c r="BZ6" s="14">
         <v>12</v>
       </c>
-      <c r="AQ6" s="13">
+      <c r="CA6" s="13">
         <v>17</v>
       </c>
-      <c r="AR6" s="16">
+      <c r="CB6" s="16">
         <v>23</v>
       </c>
-      <c r="AS6" s="16">
+      <c r="CC6" s="16">
         <v>30</v>
       </c>
-      <c r="AT6">
+      <c r="CD6">
         <v>38</v>
       </c>
-      <c r="AU6">
+      <c r="CE6">
         <v>47</v>
       </c>
-      <c r="AV6">
+      <c r="CF6">
         <v>57</v>
       </c>
-      <c r="AW6">
+      <c r="CG6">
         <v>68</v>
       </c>
-      <c r="AX6">
+      <c r="CH6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="3:51">
+    <row r="7" spans="3:87">
       <c r="F7" t="s">
         <v>0</v>
       </c>
@@ -1122,53 +1448,125 @@
       <c r="AG7" s="1">
         <v>27</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7" s="28">
+        <v>6</v>
+      </c>
+      <c r="AK7" s="28">
+        <v>9</v>
+      </c>
+      <c r="AL7" s="23">
+        <v>13</v>
+      </c>
+      <c r="AM7" s="28">
+        <v>18</v>
+      </c>
+      <c r="AN7" s="31">
+        <v>24</v>
+      </c>
+      <c r="AO7" s="29">
+        <v>30</v>
+      </c>
+      <c r="AP7" s="29">
+        <v>35</v>
+      </c>
+      <c r="AS7" s="28">
+        <v>6</v>
+      </c>
+      <c r="AT7" s="28">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="23">
+        <v>13</v>
+      </c>
+      <c r="AV7" s="28">
+        <v>18</v>
+      </c>
+      <c r="AW7" s="31">
+        <v>24</v>
+      </c>
+      <c r="AX7" s="31">
+        <v>31</v>
+      </c>
+      <c r="AY7" s="26">
+        <v>38</v>
+      </c>
+      <c r="AZ7" s="29">
+        <v>44</v>
+      </c>
+      <c r="BC7" s="28">
+        <v>6</v>
+      </c>
+      <c r="BD7" s="28">
+        <v>9</v>
+      </c>
+      <c r="BE7" s="23">
+        <v>13</v>
+      </c>
+      <c r="BF7" s="28">
+        <v>18</v>
+      </c>
+      <c r="BG7" s="31">
+        <v>24</v>
+      </c>
+      <c r="BH7" s="31">
+        <v>31</v>
+      </c>
+      <c r="BI7" s="23">
+        <v>39</v>
+      </c>
+      <c r="BJ7" s="29">
+        <v>47</v>
+      </c>
+      <c r="BK7" s="33">
+        <v>54</v>
+      </c>
+      <c r="BS7">
         <v>3</v>
       </c>
-      <c r="AJ7" s="19">
-        <f t="shared" ref="AJ7:AJ20" si="0">AI7*3+1</f>
+      <c r="BT7" s="19">
+        <f t="shared" ref="BT7:BT22" si="0">BS7*3+1</f>
         <v>10</v>
       </c>
-      <c r="AM7" s="14">
+      <c r="BW7" s="14">
         <v>6</v>
       </c>
-      <c r="AN7" s="14">
+      <c r="BX7" s="14">
         <v>9</v>
       </c>
-      <c r="AO7" s="13">
+      <c r="BY7" s="13">
         <v>13</v>
       </c>
-      <c r="AP7" s="14">
+      <c r="BZ7" s="14">
         <v>18</v>
       </c>
-      <c r="AQ7" s="17">
+      <c r="CA7" s="17">
         <v>24</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="CB7" s="3">
         <v>31</v>
       </c>
-      <c r="AS7">
+      <c r="CC7">
         <v>39</v>
       </c>
-      <c r="AT7">
+      <c r="CD7">
         <v>48</v>
       </c>
-      <c r="AU7" s="22">
+      <c r="CE7" s="22">
         <v>58</v>
       </c>
-      <c r="AV7">
+      <c r="CF7">
         <v>69</v>
       </c>
-      <c r="AW7">
+      <c r="CG7">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="3:51">
+    <row r="8" spans="3:87">
       <c r="F8" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="13">
-        <v>10</v>
+      <c r="O8" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="P8">
         <v>13</v>
@@ -1176,10 +1574,10 @@
       <c r="Q8" s="1">
         <v>15</v>
       </c>
-      <c r="R8">
-        <v>16</v>
-      </c>
-      <c r="U8" s="13">
+      <c r="R8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="19">
         <v>10</v>
       </c>
       <c r="V8" s="13">
@@ -1194,7 +1592,7 @@
       <c r="Y8">
         <v>23</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AB8" s="19">
         <v>10</v>
       </c>
       <c r="AC8" s="13">
@@ -1206,59 +1604,131 @@
       <c r="AE8" s="1">
         <v>24</v>
       </c>
-      <c r="AF8">
-        <v>28</v>
+      <c r="AF8" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="AG8">
         <v>31</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8" s="24">
+        <v>10</v>
+      </c>
+      <c r="AK8" s="23">
+        <v>14</v>
+      </c>
+      <c r="AL8" s="31">
+        <v>19</v>
+      </c>
+      <c r="AM8" s="31">
+        <v>25</v>
+      </c>
+      <c r="AN8" s="29">
+        <v>31</v>
+      </c>
+      <c r="AO8" s="29">
+        <v>36</v>
+      </c>
+      <c r="AP8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS8" s="24">
+        <v>10</v>
+      </c>
+      <c r="AT8" s="23">
+        <v>14</v>
+      </c>
+      <c r="AU8" s="31">
+        <v>19</v>
+      </c>
+      <c r="AV8" s="31">
+        <v>25</v>
+      </c>
+      <c r="AW8" s="31">
+        <v>32</v>
+      </c>
+      <c r="AX8" s="26">
+        <v>39</v>
+      </c>
+      <c r="AY8" s="30">
+        <v>45</v>
+      </c>
+      <c r="AZ8" s="29">
+        <v>50</v>
+      </c>
+      <c r="BC8" s="24">
+        <v>10</v>
+      </c>
+      <c r="BD8" s="23">
+        <v>14</v>
+      </c>
+      <c r="BE8" s="31">
+        <v>19</v>
+      </c>
+      <c r="BF8" s="31">
+        <v>25</v>
+      </c>
+      <c r="BG8" s="31">
+        <v>32</v>
+      </c>
+      <c r="BH8" s="27">
+        <v>40</v>
+      </c>
+      <c r="BI8" s="33">
+        <v>48</v>
+      </c>
+      <c r="BJ8" s="29">
+        <v>55</v>
+      </c>
+      <c r="BK8" s="26">
+        <v>61</v>
+      </c>
+      <c r="BS8">
         <v>5</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="BT8" s="19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AM8" s="19">
+      <c r="BW8" s="19">
         <v>10</v>
       </c>
-      <c r="AN8" s="13">
+      <c r="BX8" s="13">
         <v>14</v>
       </c>
-      <c r="AO8" s="15">
+      <c r="BY8" s="15">
         <v>19</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="BZ8" s="3">
         <v>25</v>
       </c>
-      <c r="AQ8" s="17">
+      <c r="CA8" s="17">
         <v>32</v>
       </c>
-      <c r="AR8" s="21">
+      <c r="CB8" s="21">
         <v>40</v>
       </c>
-      <c r="AS8" s="17">
+      <c r="CC8" s="17">
         <v>49</v>
       </c>
-      <c r="AT8" s="17">
+      <c r="CD8" s="17">
         <v>59</v>
       </c>
-      <c r="AU8" s="21">
+      <c r="CE8" s="21">
         <v>70</v>
       </c>
-      <c r="AV8" s="21">
+      <c r="CF8" s="21">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="3:51">
+    <row r="9" spans="3:87">
       <c r="U9" s="14">
         <v>15</v>
       </c>
       <c r="V9">
         <v>19</v>
       </c>
-      <c r="W9">
-        <v>22</v>
+      <c r="W9" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="X9" s="1">
         <v>24</v>
@@ -1281,45 +1751,117 @@
       <c r="AF9">
         <v>32</v>
       </c>
-      <c r="AG9">
-        <v>34</v>
-      </c>
-      <c r="AI9">
+      <c r="AG9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ9" s="28">
+        <v>15</v>
+      </c>
+      <c r="AK9" s="23">
+        <v>20</v>
+      </c>
+      <c r="AL9" s="31">
+        <v>26</v>
+      </c>
+      <c r="AM9" s="29">
+        <v>32</v>
+      </c>
+      <c r="AN9" s="29">
+        <v>37</v>
+      </c>
+      <c r="AO9" s="29">
+        <v>41</v>
+      </c>
+      <c r="AP9" s="29">
+        <v>44</v>
+      </c>
+      <c r="AS9" s="28">
+        <v>15</v>
+      </c>
+      <c r="AT9" s="23">
+        <v>20</v>
+      </c>
+      <c r="AU9" s="31">
+        <v>26</v>
+      </c>
+      <c r="AV9" s="23">
+        <v>33</v>
+      </c>
+      <c r="AW9" s="27">
+        <v>40</v>
+      </c>
+      <c r="AX9" s="34">
+        <v>46</v>
+      </c>
+      <c r="AY9" s="30">
+        <v>51</v>
+      </c>
+      <c r="AZ9" s="29">
+        <v>55</v>
+      </c>
+      <c r="BC9" s="28">
+        <v>15</v>
+      </c>
+      <c r="BD9" s="23">
+        <v>20</v>
+      </c>
+      <c r="BE9" s="31">
+        <v>26</v>
+      </c>
+      <c r="BF9" s="23">
+        <v>33</v>
+      </c>
+      <c r="BG9" s="31">
+        <v>41</v>
+      </c>
+      <c r="BH9" s="33">
+        <v>49</v>
+      </c>
+      <c r="BI9" s="30">
+        <v>56</v>
+      </c>
+      <c r="BJ9" s="29">
+        <v>62</v>
+      </c>
+      <c r="BK9" s="29">
+        <v>67</v>
+      </c>
+      <c r="BS9">
         <v>7</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="BT9" s="19">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AM9" s="14">
+      <c r="BW9" s="14">
         <v>15</v>
       </c>
-      <c r="AN9" s="13">
+      <c r="BX9" s="13">
         <v>20</v>
       </c>
-      <c r="AO9" s="17">
+      <c r="BY9" s="17">
         <v>26</v>
       </c>
-      <c r="AP9" s="17">
+      <c r="BZ9" s="17">
         <v>33</v>
       </c>
-      <c r="AQ9" s="17">
+      <c r="CA9" s="17">
         <v>41</v>
       </c>
-      <c r="AR9" s="17">
+      <c r="CB9" s="17">
         <v>50</v>
       </c>
-      <c r="AS9" s="17">
+      <c r="CC9" s="17">
         <v>60</v>
       </c>
-      <c r="AT9" s="17">
+      <c r="CD9" s="17">
         <v>71</v>
       </c>
-      <c r="AU9" s="17">
+      <c r="CE9" s="17">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="3:51">
+    <row r="10" spans="3:87">
       <c r="J10" s="13" t="s">
         <v>23</v>
       </c>
@@ -1348,365 +1890,1360 @@
       <c r="AG10" s="1">
         <v>36</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10" s="28">
+        <v>21</v>
+      </c>
+      <c r="AK10" s="23">
+        <v>27</v>
+      </c>
+      <c r="AL10" s="25">
+        <v>33</v>
+      </c>
+      <c r="AM10" s="26">
+        <v>38</v>
+      </c>
+      <c r="AN10" s="29">
+        <v>42</v>
+      </c>
+      <c r="AO10" s="30">
+        <v>45</v>
+      </c>
+      <c r="AP10" s="29">
+        <v>47</v>
+      </c>
+      <c r="AS10" s="28">
+        <v>21</v>
+      </c>
+      <c r="AT10" s="23">
+        <v>27</v>
+      </c>
+      <c r="AU10" s="27">
+        <v>34</v>
+      </c>
+      <c r="AV10" s="29">
+        <v>41</v>
+      </c>
+      <c r="AW10" s="29">
+        <v>47</v>
+      </c>
+      <c r="AX10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY10" s="30">
+        <v>56</v>
+      </c>
+      <c r="AZ10" s="29">
+        <v>59</v>
+      </c>
+      <c r="BC10" s="28">
+        <v>21</v>
+      </c>
+      <c r="BD10" s="23">
+        <v>27</v>
+      </c>
+      <c r="BE10" s="27">
+        <v>34</v>
+      </c>
+      <c r="BF10" s="31">
+        <v>42</v>
+      </c>
+      <c r="BG10" s="29">
+        <v>50</v>
+      </c>
+      <c r="BH10" s="26">
+        <v>57</v>
+      </c>
+      <c r="BI10" s="30">
+        <v>63</v>
+      </c>
+      <c r="BJ10" s="29">
+        <v>68</v>
+      </c>
+      <c r="BK10" s="29">
+        <v>72</v>
+      </c>
+      <c r="BS10">
         <v>9</v>
       </c>
-      <c r="AJ10" s="19">
+      <c r="BT10" s="19">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AM10" s="14">
+      <c r="BW10" s="14">
         <v>21</v>
       </c>
-      <c r="AN10" s="16">
+      <c r="BX10" s="16">
         <v>27</v>
       </c>
-      <c r="AO10" s="21">
+      <c r="BY10" s="21">
         <v>34</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="BZ10" s="3">
         <v>42</v>
       </c>
-      <c r="AQ10" s="17">
+      <c r="CA10" s="17">
         <v>51</v>
       </c>
-      <c r="AR10" s="3">
+      <c r="CB10" s="3">
         <v>61</v>
       </c>
-      <c r="AS10" s="17">
+      <c r="CC10" s="17">
         <v>72</v>
       </c>
-      <c r="AT10" s="17">
+      <c r="CD10" s="17">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="3:51">
+    <row r="11" spans="3:87">
+      <c r="J11" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="N11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
       <c r="AB11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="1"/>
-      <c r="AI11">
+      <c r="AJ11" s="32">
+        <v>28</v>
+      </c>
+      <c r="AK11" s="35">
+        <v>34</v>
+      </c>
+      <c r="AL11" s="26">
+        <v>39</v>
+      </c>
+      <c r="AM11" s="26">
+        <v>43</v>
+      </c>
+      <c r="AN11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO11" s="33">
+        <v>48</v>
+      </c>
+      <c r="AP11" s="33">
+        <v>49</v>
+      </c>
+      <c r="AS11" s="32">
+        <v>28</v>
+      </c>
+      <c r="AT11" s="31">
+        <v>35</v>
+      </c>
+      <c r="AU11" s="29">
+        <v>42</v>
+      </c>
+      <c r="AV11" s="33">
+        <v>48</v>
+      </c>
+      <c r="AW11" s="29">
+        <v>53</v>
+      </c>
+      <c r="AX11" s="26">
+        <v>57</v>
+      </c>
+      <c r="AY11" s="30">
+        <v>60</v>
+      </c>
+      <c r="AZ11" s="29">
+        <v>62</v>
+      </c>
+      <c r="BC11" s="32">
+        <v>28</v>
+      </c>
+      <c r="BD11" s="31">
+        <v>35</v>
+      </c>
+      <c r="BE11" s="23">
+        <v>43</v>
+      </c>
+      <c r="BF11" s="30">
+        <v>51</v>
+      </c>
+      <c r="BG11" s="27">
+        <v>58</v>
+      </c>
+      <c r="BH11" s="27">
+        <v>64</v>
+      </c>
+      <c r="BI11" s="30">
+        <v>69</v>
+      </c>
+      <c r="BJ11" s="29">
+        <v>73</v>
+      </c>
+      <c r="BK11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS11">
         <v>11</v>
       </c>
-      <c r="AJ11">
+      <c r="BT11">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM11" s="20">
+      <c r="BW11" s="20">
         <v>28</v>
       </c>
-      <c r="AN11" s="16">
+      <c r="BX11" s="16">
         <v>35</v>
       </c>
-      <c r="AO11" s="17">
+      <c r="BY11" s="17">
         <v>43</v>
       </c>
-      <c r="AP11" s="22">
+      <c r="BZ11" s="22">
         <v>52</v>
       </c>
-      <c r="AQ11" s="18">
+      <c r="CA11" s="18">
         <v>62</v>
       </c>
-      <c r="AR11" s="18">
+      <c r="CB11" s="18">
         <v>73</v>
       </c>
-      <c r="AS11" s="18">
+      <c r="CC11" s="18">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="3:51">
+    <row r="12" spans="3:87">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
       <c r="AB12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="1"/>
-      <c r="AI12">
+      <c r="AS12" s="31">
+        <v>36</v>
+      </c>
+      <c r="AT12" s="26">
+        <v>43</v>
+      </c>
+      <c r="AU12" s="33">
+        <v>49</v>
+      </c>
+      <c r="AV12" s="33">
+        <v>54</v>
+      </c>
+      <c r="AW12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX12" s="26">
+        <v>61</v>
+      </c>
+      <c r="AY12" s="30">
+        <v>63</v>
+      </c>
+      <c r="AZ12" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC12" s="31">
+        <v>36</v>
+      </c>
+      <c r="BD12" s="31">
+        <v>44</v>
+      </c>
+      <c r="BE12" s="34">
+        <v>52</v>
+      </c>
+      <c r="BF12" s="29">
+        <v>59</v>
+      </c>
+      <c r="BG12" s="26">
+        <v>65</v>
+      </c>
+      <c r="BH12" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI12" s="30">
+        <v>74</v>
+      </c>
+      <c r="BJ12" s="29">
+        <v>77</v>
+      </c>
+      <c r="BK12" s="29">
+        <v>79</v>
+      </c>
+      <c r="BS12">
         <v>13</v>
       </c>
-      <c r="AJ12">
+      <c r="BT12">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AM12" s="17">
+      <c r="BW12" s="17">
         <v>36</v>
       </c>
-      <c r="AN12">
+      <c r="BX12">
         <v>44</v>
       </c>
-      <c r="AO12" s="17">
+      <c r="BY12" s="17">
         <v>53</v>
       </c>
-      <c r="AP12" s="17">
+      <c r="BZ12" s="17">
         <v>63</v>
       </c>
-      <c r="AQ12" s="17">
+      <c r="CA12" s="17">
         <v>74</v>
       </c>
-      <c r="AR12" s="17">
+      <c r="CB12" s="17">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="3:51">
-      <c r="AI13">
+    <row r="13" spans="3:87">
+      <c r="AB13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="1"/>
+      <c r="BC13" s="31">
+        <v>45</v>
+      </c>
+      <c r="BD13" s="29">
+        <v>53</v>
+      </c>
+      <c r="BE13" s="30">
+        <v>60</v>
+      </c>
+      <c r="BF13" s="29">
+        <v>66</v>
+      </c>
+      <c r="BG13" s="29">
+        <v>71</v>
+      </c>
+      <c r="BH13" s="29">
+        <v>75</v>
+      </c>
+      <c r="BI13" s="30">
+        <v>78</v>
+      </c>
+      <c r="BJ13" s="29">
+        <v>80</v>
+      </c>
+      <c r="BK13" s="29">
+        <v>81</v>
+      </c>
+      <c r="BW13" s="17"/>
+      <c r="BY13" s="17"/>
+      <c r="BZ13" s="17"/>
+      <c r="CA13" s="17"/>
+      <c r="CB13" s="17"/>
+    </row>
+    <row r="14" spans="3:87">
+      <c r="AB14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="1"/>
+      <c r="BW14" s="17"/>
+      <c r="BY14" s="17"/>
+      <c r="BZ14" s="17"/>
+      <c r="CA14" s="17"/>
+      <c r="CB14" s="17"/>
+    </row>
+    <row r="15" spans="3:87">
+      <c r="BS15">
         <v>15</v>
       </c>
-      <c r="AJ13" s="19">
+      <c r="BT15" s="19">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AM13">
+      <c r="BW15">
         <v>45</v>
       </c>
-      <c r="AN13">
+      <c r="BX15">
         <v>54</v>
       </c>
-      <c r="AO13" s="21">
+      <c r="BY15" s="21">
         <v>64</v>
       </c>
-      <c r="AP13" s="17">
+      <c r="BZ15" s="17">
         <v>75</v>
       </c>
-      <c r="AQ13" s="17">
+      <c r="CA15" s="17">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="3:51" ht="14.25" thickBot="1">
-      <c r="AI14">
+    <row r="16" spans="3:87" ht="14.25" thickBot="1">
+      <c r="BS16">
         <v>17</v>
       </c>
-      <c r="AJ14">
+      <c r="BT16">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="AM14">
+      <c r="BW16">
         <v>55</v>
       </c>
-      <c r="AN14">
+      <c r="BX16">
         <v>65</v>
       </c>
-      <c r="AO14" s="21">
+      <c r="BY16" s="21">
         <v>76</v>
       </c>
-      <c r="AP14" s="21">
+      <c r="BZ16" s="21">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="3:51">
-      <c r="C15" s="4">
+    <row r="17" spans="3:90">
+      <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="K15" s="4">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="K17" s="4">
         <v>1</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L17" s="5">
         <v>2</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="AI15">
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="BS17">
         <v>19</v>
       </c>
-      <c r="AJ15">
+      <c r="BT17">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="AM15">
+      <c r="BW17">
         <v>66</v>
       </c>
-      <c r="AN15">
+      <c r="BX17">
         <v>77</v>
       </c>
-      <c r="AO15" s="17">
+      <c r="BY17" s="17">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="3:51" ht="14.25" thickBot="1">
-      <c r="C16" s="6">
+    <row r="18" spans="3:90" ht="14.25" thickBot="1">
+      <c r="C18" s="6">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D18" s="7">
         <v>4</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="K16" s="6">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="K18" s="6">
         <v>3</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L18" s="7">
         <v>4</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11" t="s">
+      <c r="M18" s="11"/>
+      <c r="N18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="AI16">
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="BS18">
         <v>21</v>
       </c>
-      <c r="AJ16">
+      <c r="BT18">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="AM16">
+      <c r="BW18">
         <v>78</v>
       </c>
-      <c r="AN16">
+      <c r="BX18">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="3:39" ht="14.25" thickBot="1">
-      <c r="C17" s="9" t="s">
+    <row r="19" spans="3:90" ht="14.25" thickBot="1">
+      <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11" t="s">
+      <c r="O19" s="11"/>
+      <c r="P19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AI17">
+      <c r="BS19">
         <v>23</v>
       </c>
-      <c r="AJ17">
+      <c r="BT19">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="AM17">
+      <c r="BW19">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="3:39" ht="14.25" thickBot="1">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="AI18">
-        <v>25</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="3:39" ht="14.25" thickBot="1">
-      <c r="C19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="K19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="AI19">
-        <v>27</v>
-      </c>
-      <c r="AJ19">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="3:39" ht="14.25" thickBot="1">
-      <c r="C20" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="20" spans="3:90" ht="14.25" thickBot="1">
+      <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="BS20">
+        <v>25</v>
+      </c>
+      <c r="BT20">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="3:90" ht="14.25" thickBot="1">
+      <c r="C21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="K21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="BS21">
+        <v>27</v>
+      </c>
+      <c r="BT21">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="3:90" ht="14.25" thickBot="1">
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11" t="s">
+      <c r="O22" s="11"/>
+      <c r="P22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AI20">
+      <c r="BS22">
         <v>29</v>
       </c>
-      <c r="AJ20">
+      <c r="BT22">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
+    </row>
+    <row r="24" spans="3:90">
+      <c r="BW24" s="23">
+        <v>1</v>
+      </c>
+      <c r="BX24" s="23">
+        <v>2</v>
+      </c>
+      <c r="BY24" s="24">
+        <v>4</v>
+      </c>
+      <c r="BZ24" s="23">
+        <v>7</v>
+      </c>
+      <c r="CA24" s="23">
+        <v>11</v>
+      </c>
+      <c r="CB24" s="24">
+        <v>16</v>
+      </c>
+      <c r="CC24" s="24">
+        <v>22</v>
+      </c>
+      <c r="CD24" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE24" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF24" s="27">
+        <v>40</v>
+      </c>
+      <c r="CG24" s="24">
+        <v>46</v>
+      </c>
+      <c r="CH24" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="CI24" s="25"/>
+      <c r="CJ24" s="25"/>
+      <c r="CK24" s="26"/>
+      <c r="CL24" s="26"/>
+    </row>
+    <row r="25" spans="3:90">
+      <c r="BW25" s="28">
+        <v>3</v>
+      </c>
+      <c r="BX25" s="23">
+        <v>5</v>
+      </c>
+      <c r="BY25" s="23">
+        <v>8</v>
+      </c>
+      <c r="BZ25" s="28">
+        <v>12</v>
+      </c>
+      <c r="CA25" s="23">
+        <v>17</v>
+      </c>
+      <c r="CB25" s="25">
+        <v>23</v>
+      </c>
+      <c r="CC25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE25" s="26">
+        <v>41</v>
+      </c>
+      <c r="CF25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="CH25" s="26"/>
+      <c r="CI25" s="26"/>
+      <c r="CJ25" s="26"/>
+      <c r="CK25" s="26"/>
+      <c r="CL25" s="26"/>
+    </row>
+    <row r="26" spans="3:90">
+      <c r="BW26" s="28">
+        <v>6</v>
+      </c>
+      <c r="BX26" s="28">
+        <v>9</v>
+      </c>
+      <c r="BY26" s="23">
+        <v>13</v>
+      </c>
+      <c r="BZ26" s="28">
+        <v>18</v>
+      </c>
+      <c r="CA26" s="29">
+        <v>24</v>
+      </c>
+      <c r="CB26" s="30">
+        <v>29</v>
+      </c>
+      <c r="CC26" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD26" s="26">
+        <v>42</v>
+      </c>
+      <c r="CE26" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF26" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG26" s="26"/>
+      <c r="CH26" s="26"/>
+      <c r="CI26" s="26"/>
+      <c r="CJ26" s="26"/>
+      <c r="CK26" s="26"/>
+      <c r="CL26" s="26"/>
+    </row>
+    <row r="27" spans="3:90">
+      <c r="BW27" s="24">
+        <v>10</v>
+      </c>
+      <c r="BX27" s="23">
+        <v>14</v>
+      </c>
+      <c r="BY27" s="31">
+        <v>19</v>
+      </c>
+      <c r="BZ27" s="30">
+        <v>25</v>
+      </c>
+      <c r="CA27" s="29">
+        <v>30</v>
+      </c>
+      <c r="CB27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC27" s="29">
+        <v>43</v>
+      </c>
+      <c r="CD27" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF27" s="26"/>
+      <c r="CG27" s="26"/>
+      <c r="CH27" s="26"/>
+      <c r="CI27" s="26"/>
+      <c r="CJ27" s="26"/>
+      <c r="CK27" s="26"/>
+      <c r="CL27" s="26"/>
+    </row>
+    <row r="28" spans="3:90">
+      <c r="BW28" s="28">
+        <v>15</v>
+      </c>
+      <c r="BX28" s="23">
+        <v>20</v>
+      </c>
+      <c r="BY28" s="29">
+        <v>26</v>
+      </c>
+      <c r="BZ28" s="29">
+        <v>31</v>
+      </c>
+      <c r="CA28" s="29">
+        <v>35</v>
+      </c>
+      <c r="CB28" s="29">
+        <v>44</v>
+      </c>
+      <c r="CC28" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD28" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE28" s="29"/>
+      <c r="CF28" s="26"/>
+      <c r="CG28" s="26"/>
+      <c r="CH28" s="26"/>
+      <c r="CI28" s="26"/>
+      <c r="CJ28" s="26"/>
+      <c r="CK28" s="26"/>
+      <c r="CL28" s="26"/>
+    </row>
+    <row r="29" spans="3:90">
+      <c r="BW29" s="28">
+        <v>21</v>
+      </c>
+      <c r="BX29" s="25">
+        <v>27</v>
+      </c>
+      <c r="BY29" s="29">
+        <v>32</v>
+      </c>
+      <c r="BZ29" s="29">
+        <v>36</v>
+      </c>
+      <c r="CA29" s="29">
+        <v>45</v>
+      </c>
+      <c r="CB29" s="30">
+        <v>47</v>
+      </c>
+      <c r="CC29" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD29" s="29"/>
+      <c r="CE29" s="26"/>
+      <c r="CF29" s="26"/>
+      <c r="CG29" s="26"/>
+      <c r="CH29" s="26"/>
+      <c r="CI29" s="26"/>
+      <c r="CJ29" s="26"/>
+      <c r="CK29" s="26"/>
+      <c r="CL29" s="26"/>
+    </row>
+    <row r="30" spans="3:90">
+      <c r="BW30" s="32">
+        <v>28</v>
+      </c>
+      <c r="BX30" s="25">
+        <v>33</v>
+      </c>
+      <c r="BY30" s="29">
+        <v>37</v>
+      </c>
+      <c r="BZ30" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA30" s="33">
+        <v>48</v>
+      </c>
+      <c r="CB30" s="33">
+        <v>53</v>
+      </c>
+      <c r="CC30" s="33"/>
+      <c r="CD30" s="26"/>
+      <c r="CE30" s="26"/>
+      <c r="CF30" s="26"/>
+      <c r="CG30" s="26"/>
+      <c r="CH30" s="26"/>
+      <c r="CI30" s="26"/>
+      <c r="CJ30" s="26"/>
+      <c r="CK30" s="26"/>
+      <c r="CL30" s="26"/>
+    </row>
+    <row r="31" spans="3:90">
+      <c r="BW31" s="27">
+        <v>34</v>
+      </c>
+      <c r="BX31" s="26">
+        <v>38</v>
+      </c>
+      <c r="BY31" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="BZ31" s="29">
+        <v>49</v>
+      </c>
+      <c r="CA31" s="29">
+        <v>54</v>
+      </c>
+      <c r="CB31" s="29"/>
+      <c r="CC31" s="26"/>
+      <c r="CD31" s="26"/>
+      <c r="CE31" s="26"/>
+      <c r="CF31" s="26"/>
+      <c r="CG31" s="26"/>
+      <c r="CH31" s="26"/>
+      <c r="CI31" s="26"/>
+      <c r="CJ31" s="26"/>
+      <c r="CK31" s="26"/>
+      <c r="CL31" s="26"/>
+    </row>
+    <row r="32" spans="3:90">
+      <c r="BW32" s="26">
+        <v>39</v>
+      </c>
+      <c r="BX32" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY32" s="26">
+        <v>50</v>
+      </c>
+      <c r="BZ32" s="26">
+        <v>55</v>
+      </c>
+      <c r="CA32" s="29"/>
+      <c r="CB32" s="26"/>
+      <c r="CC32" s="26"/>
+      <c r="CD32" s="26"/>
+      <c r="CF32" s="26">
+        <v>69</v>
+      </c>
+      <c r="CG32" s="26"/>
+      <c r="CH32" s="26"/>
+      <c r="CI32" s="26"/>
+      <c r="CJ32" s="26"/>
+      <c r="CK32" s="26"/>
+      <c r="CL32" s="26"/>
+    </row>
+    <row r="33" spans="75:90">
+      <c r="BW33" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX33" s="26">
+        <v>51</v>
+      </c>
+      <c r="BY33" s="26">
+        <v>56</v>
+      </c>
+      <c r="BZ33" s="26"/>
+      <c r="CA33" s="26"/>
+      <c r="CB33" s="26"/>
+      <c r="CC33" s="26"/>
+      <c r="CD33" s="26"/>
+      <c r="CE33" s="27">
+        <v>70</v>
+      </c>
+      <c r="CF33" s="27">
+        <v>82</v>
+      </c>
+      <c r="CG33" s="26"/>
+      <c r="CH33" s="26"/>
+      <c r="CI33" s="26"/>
+      <c r="CJ33" s="26"/>
+      <c r="CK33" s="26"/>
+      <c r="CL33" s="26"/>
+    </row>
+    <row r="34" spans="75:90">
+      <c r="BW34" s="34">
+        <v>52</v>
+      </c>
+      <c r="BX34" s="26">
+        <v>57</v>
+      </c>
+      <c r="BY34" s="29"/>
+      <c r="BZ34" s="26"/>
+      <c r="CA34" s="26"/>
+      <c r="CB34" s="27">
+        <v>64</v>
+      </c>
+      <c r="CC34" s="29">
+        <v>75</v>
+      </c>
+      <c r="CD34" s="26"/>
+      <c r="CE34" s="26"/>
+      <c r="CF34" s="26"/>
+      <c r="CG34" s="26"/>
+      <c r="CH34" s="26"/>
+      <c r="CI34" s="26"/>
+      <c r="CJ34" s="26"/>
+      <c r="CK34" s="26"/>
+      <c r="CL34" s="26"/>
+    </row>
+    <row r="35" spans="75:90">
+      <c r="BW35" s="34">
+        <v>58</v>
+      </c>
+      <c r="BX35" s="26"/>
+      <c r="BY35" s="26"/>
+      <c r="BZ35" s="26"/>
+      <c r="CA35" s="26"/>
+      <c r="CB35" s="27">
+        <v>76</v>
+      </c>
+      <c r="CC35" s="27">
+        <v>88</v>
+      </c>
+      <c r="CD35" s="26"/>
+      <c r="CE35" s="26"/>
+      <c r="CF35" s="26"/>
+      <c r="CG35" s="26"/>
+      <c r="CH35" s="26"/>
+      <c r="CI35" s="26"/>
+      <c r="CJ35" s="26"/>
+      <c r="CK35" s="26"/>
+      <c r="CL35" s="26"/>
+    </row>
+    <row r="36" spans="75:90">
+      <c r="BW36" s="26"/>
+      <c r="BX36" s="26"/>
+      <c r="BY36" s="26"/>
+      <c r="BZ36" s="26"/>
+      <c r="CA36" s="26"/>
+      <c r="CB36" s="26"/>
+      <c r="CC36" s="26"/>
+      <c r="CD36" s="26"/>
+      <c r="CE36" s="26"/>
+      <c r="CF36" s="26"/>
+      <c r="CG36" s="26"/>
+      <c r="CH36" s="26"/>
+      <c r="CI36" s="26"/>
+      <c r="CJ36" s="26"/>
+      <c r="CK36" s="26"/>
+      <c r="CL36" s="26"/>
+    </row>
+    <row r="37" spans="75:90">
+      <c r="BW37" s="26"/>
+      <c r="BX37" s="26"/>
+      <c r="BY37" s="26"/>
+      <c r="BZ37" s="26"/>
+      <c r="CA37" s="26"/>
+      <c r="CB37" s="26"/>
+      <c r="CC37" s="26"/>
+      <c r="CD37" s="26"/>
+      <c r="CE37" s="26"/>
+      <c r="CF37" s="26"/>
+      <c r="CG37" s="26"/>
+      <c r="CH37" s="26"/>
+      <c r="CI37" s="26"/>
+      <c r="CJ37" s="26"/>
+      <c r="CK37" s="26"/>
+      <c r="CL37" s="26"/>
+    </row>
+    <row r="38" spans="75:90">
+      <c r="BW38" s="26"/>
+      <c r="BX38" s="26"/>
+      <c r="BY38" s="26"/>
+      <c r="BZ38" s="26"/>
+      <c r="CA38" s="26"/>
+      <c r="CB38" s="26"/>
+      <c r="CC38" s="26"/>
+      <c r="CD38" s="26"/>
+      <c r="CE38" s="26"/>
+      <c r="CF38" s="26"/>
+      <c r="CG38" s="26"/>
+      <c r="CH38" s="26"/>
+      <c r="CI38" s="26"/>
+      <c r="CJ38" s="26"/>
+      <c r="CK38" s="26"/>
+      <c r="CL38" s="26"/>
+    </row>
+    <row r="40" spans="75:90">
+      <c r="BW40" s="23">
+        <v>1</v>
+      </c>
+      <c r="BX40" s="23">
+        <v>2</v>
+      </c>
+      <c r="BY40" s="24">
+        <v>4</v>
+      </c>
+      <c r="BZ40" s="23">
+        <v>7</v>
+      </c>
+      <c r="CA40" s="23">
+        <v>11</v>
+      </c>
+      <c r="CB40" s="24">
+        <v>16</v>
+      </c>
+      <c r="CC40" s="24">
+        <v>22</v>
+      </c>
+      <c r="CD40" s="25"/>
+      <c r="CE40" s="26"/>
+      <c r="CH40" s="25"/>
+    </row>
+    <row r="41" spans="75:90">
+      <c r="BW41" s="28">
+        <v>3</v>
+      </c>
+      <c r="BX41" s="23">
+        <v>5</v>
+      </c>
+      <c r="BY41" s="23">
+        <v>8</v>
+      </c>
+      <c r="BZ41" s="28">
+        <v>12</v>
+      </c>
+      <c r="CA41" s="23">
+        <v>17</v>
+      </c>
+      <c r="CB41" s="25">
+        <v>23</v>
+      </c>
+      <c r="CC41" s="30">
+        <v>29</v>
+      </c>
+      <c r="CD41" s="26"/>
+      <c r="CE41" s="26"/>
+      <c r="CF41" s="26"/>
+      <c r="CG41" s="26"/>
+      <c r="CH41" s="26"/>
+    </row>
+    <row r="42" spans="75:90">
+      <c r="BW42" s="28">
+        <v>6</v>
+      </c>
+      <c r="BX42" s="28">
+        <v>9</v>
+      </c>
+      <c r="BY42" s="23">
+        <v>13</v>
+      </c>
+      <c r="BZ42" s="28">
+        <v>18</v>
+      </c>
+      <c r="CA42" s="29">
+        <v>24</v>
+      </c>
+      <c r="CB42" s="29">
+        <v>30</v>
+      </c>
+      <c r="CC42" s="29">
+        <v>35</v>
+      </c>
+      <c r="CD42" s="26"/>
+      <c r="CE42" s="26"/>
+      <c r="CF42" s="26"/>
+      <c r="CG42" s="26"/>
+      <c r="CH42" s="26"/>
+    </row>
+    <row r="43" spans="75:90">
+      <c r="BW43" s="24">
+        <v>10</v>
+      </c>
+      <c r="BX43" s="23">
+        <v>14</v>
+      </c>
+      <c r="BY43" s="31">
+        <v>19</v>
+      </c>
+      <c r="BZ43" s="30">
+        <v>25</v>
+      </c>
+      <c r="CA43" s="29">
+        <v>31</v>
+      </c>
+      <c r="CB43" s="29">
+        <v>36</v>
+      </c>
+      <c r="CC43" s="27">
+        <v>40</v>
+      </c>
+      <c r="CD43" s="29"/>
+      <c r="CE43" s="26"/>
+      <c r="CF43" s="26"/>
+      <c r="CG43" s="26"/>
+      <c r="CH43" s="26"/>
+    </row>
+    <row r="44" spans="75:90">
+      <c r="BW44" s="28">
+        <v>15</v>
+      </c>
+      <c r="BX44" s="23">
+        <v>20</v>
+      </c>
+      <c r="BY44" s="29">
+        <v>26</v>
+      </c>
+      <c r="BZ44" s="29">
+        <v>32</v>
+      </c>
+      <c r="CA44" s="29">
+        <v>37</v>
+      </c>
+      <c r="CB44" s="29">
+        <v>41</v>
+      </c>
+      <c r="CC44" s="29">
+        <v>44</v>
+      </c>
+      <c r="CD44" s="29"/>
+      <c r="CE44" s="29"/>
+      <c r="CF44" s="26"/>
+      <c r="CG44" s="26"/>
+      <c r="CH44" s="26"/>
+    </row>
+    <row r="45" spans="75:90">
+      <c r="BW45" s="28">
+        <v>21</v>
+      </c>
+      <c r="BX45" s="25">
+        <v>27</v>
+      </c>
+      <c r="BY45" s="25">
+        <v>33</v>
+      </c>
+      <c r="BZ45" s="26">
+        <v>38</v>
+      </c>
+      <c r="CA45" s="29">
+        <v>42</v>
+      </c>
+      <c r="CB45" s="30">
+        <v>45</v>
+      </c>
+      <c r="CC45" s="29">
+        <v>47</v>
+      </c>
+      <c r="CD45" s="29"/>
+      <c r="CE45" s="26"/>
+      <c r="CF45" s="26"/>
+      <c r="CG45" s="26"/>
+      <c r="CH45" s="26"/>
+    </row>
+    <row r="46" spans="75:90">
+      <c r="BW46" s="32">
+        <v>28</v>
+      </c>
+      <c r="BX46" s="27">
+        <v>34</v>
+      </c>
+      <c r="BY46" s="26">
+        <v>39</v>
+      </c>
+      <c r="BZ46" s="26">
+        <v>43</v>
+      </c>
+      <c r="CA46" s="24">
+        <v>46</v>
+      </c>
+      <c r="CB46" s="33">
+        <v>48</v>
+      </c>
+      <c r="CC46" s="33">
+        <v>49</v>
+      </c>
+      <c r="CD46" s="26"/>
+      <c r="CE46" s="26"/>
+      <c r="CF46" s="26"/>
+      <c r="CG46" s="26"/>
+      <c r="CH46" s="26"/>
+    </row>
+    <row r="47" spans="75:90">
+      <c r="BY47" s="29"/>
+      <c r="BZ47" s="29"/>
+      <c r="CA47" s="29"/>
+      <c r="CB47" s="29"/>
+      <c r="CC47" s="26"/>
+      <c r="CD47" s="26"/>
+      <c r="CE47" s="26"/>
+      <c r="CF47" s="26"/>
+      <c r="CG47" s="26"/>
+      <c r="CH47" s="26"/>
+    </row>
+    <row r="48" spans="75:90">
+      <c r="BX48" s="26"/>
+      <c r="BY48" s="26"/>
+      <c r="BZ48" s="26"/>
+      <c r="CA48" s="29"/>
+      <c r="CB48" s="26"/>
+      <c r="CC48" s="26"/>
+      <c r="CD48" s="26"/>
+      <c r="CF48" s="26">
+        <v>69</v>
+      </c>
+      <c r="CG48" s="26"/>
+      <c r="CH48" s="26"/>
+    </row>
+    <row r="49" spans="75:86">
+      <c r="BW49" s="26"/>
+      <c r="BX49" s="26"/>
+      <c r="BY49" s="26"/>
+      <c r="BZ49" s="26"/>
+      <c r="CA49" s="26"/>
+      <c r="CB49" s="26"/>
+      <c r="CC49" s="26"/>
+      <c r="CD49" s="26"/>
+      <c r="CE49" s="27">
+        <v>70</v>
+      </c>
+      <c r="CF49" s="27">
+        <v>82</v>
+      </c>
+      <c r="CG49" s="26"/>
+      <c r="CH49" s="26"/>
+    </row>
+    <row r="50" spans="75:86">
+      <c r="BW50" s="34">
+        <v>52</v>
+      </c>
+      <c r="BX50" s="26">
+        <v>57</v>
+      </c>
+      <c r="BY50" s="29"/>
+      <c r="BZ50" s="26"/>
+      <c r="CA50" s="26"/>
+      <c r="CB50" s="27">
+        <v>64</v>
+      </c>
+      <c r="CC50" s="29">
+        <v>75</v>
+      </c>
+      <c r="CD50" s="26"/>
+      <c r="CE50" s="26"/>
+      <c r="CF50" s="26"/>
+      <c r="CG50" s="26"/>
+      <c r="CH50" s="26"/>
+    </row>
+    <row r="51" spans="75:86">
+      <c r="BW51" s="34">
+        <v>58</v>
+      </c>
+      <c r="BX51" s="26"/>
+      <c r="BY51" s="26"/>
+      <c r="BZ51" s="26"/>
+      <c r="CA51" s="26"/>
+      <c r="CB51" s="27">
+        <v>76</v>
+      </c>
+      <c r="CC51" s="27">
+        <v>88</v>
+      </c>
+      <c r="CD51" s="26"/>
+      <c r="CE51" s="26"/>
+      <c r="CF51" s="26"/>
+      <c r="CG51" s="26"/>
+      <c r="CH51" s="26"/>
+    </row>
+    <row r="52" spans="75:86">
+      <c r="BW52" s="26"/>
+      <c r="BX52" s="26"/>
+      <c r="BY52" s="26"/>
+      <c r="BZ52" s="26"/>
+      <c r="CA52" s="26"/>
+      <c r="CB52" s="26"/>
+      <c r="CC52" s="26"/>
+      <c r="CD52" s="26"/>
+      <c r="CE52" s="26"/>
+      <c r="CF52" s="26"/>
+      <c r="CG52" s="26"/>
+      <c r="CH52" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
